--- a/data/231204/231204-lek.xlsx
+++ b/data/231204/231204-lek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 厦门大学\10 实验\配料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2 code\Automation\data\231204\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44835B7-ED17-49CA-9ED7-0B66BA42BCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65BA3D5-49F3-4C55-9D56-DF4048BA1021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9075" yWindow="7530" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9075" yWindow="5715" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>拟合成片段</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>2h</t>
-  </si>
-  <si>
-    <t>a96b3c</t>
   </si>
 </sst>
 </file>
@@ -507,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
@@ -743,7 +740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16.5">
+    <row r="17" spans="1:11" ht="16.5">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -763,11 +760,11 @@
       </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:13" ht="16.5">
+    <row r="18" spans="1:11" ht="16.5">
       <c r="D18" s="8"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:13" ht="16.5">
+    <row r="19" spans="1:11" ht="16.5">
       <c r="D19" t="s">
         <v>33</v>
       </c>
@@ -777,8 +774,8 @@
       <c r="J19" s="3"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:13" ht="17.25" thickBot="1">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:11" ht="17.25" thickBot="1">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -798,7 +795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5">
+    <row r="22" spans="1:11" ht="16.5">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -816,7 +813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5">
+    <row r="23" spans="1:11" ht="16.5">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -831,11 +828,6 @@
       </c>
       <c r="F23" s="9" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="M27" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
